--- a/ReadyToWork_guide.xlsx
+++ b/ReadyToWork_guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chanh\git\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1F35B4-7111-48B6-A778-D3199351EDC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE183A-EEA6-4050-80AD-93FC60077B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project's Lifecycle" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Nội dung</t>
   </si>
@@ -123,13 +123,291 @@
   </si>
   <si>
     <t>Xem chi tiết sheet Testing&amp;FixBug</t>
+  </si>
+  <si>
+    <t>Tài liệu: Hỏi và trả lời (Q&amp;A)</t>
+  </si>
+  <si>
+    <t>Mục đích: Đặt câu hỏi về yêu cầu khách hàng, nhằm làm rõ quy trình/nghiệp vụ trước khi thiết kế chi tiết</t>
+  </si>
+  <si>
+    <t>Đối tượng: Developer Team</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>PIC*</t>
+  </si>
+  <si>
+    <t>*PIC=person incharge (người thực hiện, ở đây là người phải trả lời các câu hỏi)</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status(open/closed)</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Q&amp;A Function</t>
+  </si>
+  <si>
+    <t>Trong màn hình/Tài liệu chức năng login, có mô tả:
+Thông tin đăng nhập bao gồm Tài khoản và mật khẩu, tuy nhiên không có nói đến format cho 2 đối tượng trên. Theo tôi hiểu, cần phải có kiểm tra format cho 2 đối tượng trên như sau:
+-tài khoản: độ dài từ 4-8, và không chứa dấu cách, ký tự đặc biệt
+-Mật khẩu: Đọ dài từ 4-10 và không chứa dấu cách, ký tự đặc biệt, không có dấu, phân biệt hoa thường.
+Tôi hiểu như vậy có đúng hay không?</t>
+  </si>
+  <si>
+    <t>Chanh</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Bạn hiểu đúng rồi. Tuy nhiên, add thêm điều kiện về mật khẩu là:
+Phải có cả chữ cái và chữ số</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ở trên, là một câu Q&amp;A về </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">format </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">của thông tin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tài khoản &amp; mật khẩu</t>
+    </r>
+  </si>
+  <si>
+    <t>Theo ví dụ, ở bản yêu cầu khách hàng (basic design) không có thông tin về format.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vì vậy, developer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CẦN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hỏi thông tin về format của dữ liệu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cách đặt vấn đề: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>CẦN đưa ra nguyên nhân và giải pháp(ít nhất là 2 option) cho người trả lời lựa chọn.</t>
+  </si>
+  <si>
+    <t>Tránh đặt những câu hỏi không rõ ý hoặc thể hiện sự mơ hồ như: Tôi không hiểu, tôi không rõ,…</t>
+  </si>
+  <si>
+    <t>Khi đặt câu hỏi, cần có dẫn chứng (trích từ bản yêu cầu khách hàng là chắc chắn nhất)</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>Điền tên người sẽ trả lời câu hỏi, thường là BA hoặc PM, người sẽ làm việc trực tiếp với khách hàng</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Ngày tạo câu hỏi</t>
+  </si>
+  <si>
+    <t>Deadline cho câu hỏi</t>
+  </si>
+  <si>
+    <t>Trạng thái của Q&amp;A. open là chưa trả lời. Closed là đã trả lời và merge câu trả lời vào bản basic design</t>
+  </si>
+  <si>
+    <t>Sau khi Q&amp;A được closed</t>
+  </si>
+  <si>
+    <t>Khi closed 1 Q&amp;A, thì phần trả lời của Q&amp;A sẽ là 1 requirement (yêu cầu K/H) mới được thêm vào bản basic design.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cần phản ánh vào basic design bằng cách: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link, note, comment,….</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vào function tương ứng</t>
+    </r>
+  </si>
+  <si>
+    <t>Tại sao cần Q&amp;A:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi tiếp nhận requirement, chúng ta cần phân tích yêu cầu đó của khách hàng về quy trình/nghiệp vụ có thể TIN HỌC HÓA/SỐ HÓA được không? </t>
+  </si>
+  <si>
+    <t>Nếu được thì cần có những yếu tố nào, nếu không được thì cần chỉ ra cho khách hàng về hạn chế của công nghệ, để tìm giải pháp thay thế</t>
+  </si>
+  <si>
+    <t>TIN HỌC HÓA/SỐ HÓA: là quá trình chuyển hóa, đổi đổi quy trình/nghiệp vụ từ cách làm truyền thống/thủ công (ví dụ quản lý bằng sổ sách, excel, … ) sang sử dụng tài nguyên là phần mềm, máy tính, internet….</t>
+  </si>
+  <si>
+    <t>Ví dụ về chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>Basic design mô tả</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập vào hệ thống, thông qua cổng đăng nhập, bao gồm thông tin tài khoản và mật khẩu</t>
+  </si>
+  <si>
+    <t>Khi người dùng nhập tài khoản và mật khẩu, hệ thống sẽ kiểm tra tính hợp lệ hay không?</t>
+  </si>
+  <si>
+    <t>Nếu có thì sẽ chuyển người dùng đến trang chủ, nếu sai thì thông báo lỗi cho người dùng</t>
+  </si>
+  <si>
+    <t>Phân tích yêu cầu</t>
+  </si>
+  <si>
+    <t>TIN HỌC HÓA/SỐ HÓA: chức năng đăng nhập (Login function) cho phép người dùng đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>Đối tượng</t>
+  </si>
+  <si>
+    <t>Tài khoản &amp; mật khẩu của người dùng</t>
+  </si>
+  <si>
+    <t>Thu thập thông tin TK &amp; MK (=cách có chỗ cho người dùng nhập liệu)</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông tin TK &amp; MK</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi: sai thông tin TK *MK</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang chủ</t>
+  </si>
+  <si>
+    <t>Q&amp;A</t>
+  </si>
+  <si>
+    <t>Cách thực thiện: theo teample (ví dụ)</t>
+  </si>
+  <si>
+    <t>Cách làm truyền thống: Không có =&gt; SỐ HÓA được</t>
+  </si>
+  <si>
+    <t>Basic design updateed sau khi Q&amp;A closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Về ràng buộc dữ liệu TK&amp;MK: </t>
+  </si>
+  <si>
+    <t>-tài khoản: độ dài từ 4-8, và không chứa dấu cách, ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>-Mật khẩu: Đọ dài từ 4-10 và không chứa dấu cách, ký tự đặc biệt, không có dấu, phân biệt hoa thường,Phải có cả chữ cái và chữ số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +437,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,19 +522,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,14 +847,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A3A35-213F-4B72-A208-6D2483801CD1}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -546,220 +882,224 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E11:M11"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="B15:D16"/>
     <mergeCell ref="A7:A8"/>
@@ -767,16 +1107,12 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D12"/>
     <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -839,15 +1175,355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ED290C-177A-425D-B0CA-74742A0B9CFA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="13.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="7" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="7" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="7"/>
+    <col min="14" max="14" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="10">
+        <v>43836</v>
+      </c>
+      <c r="H26" s="10">
+        <v>43837</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
